--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/67/word_level_predictions_67.xlsx
@@ -814,728 +814,728 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="E11" s="2" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K11" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K12" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K13" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" t="n">
         <v>6</v>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" t="n">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" t="n">
         <v>8</v>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" t="n">
         <v>9</v>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" t="n">
         <v>10</v>
       </c>
-      <c r="E18" s="2" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F18" s="2" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Airports</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" t="n">
         <v>11</v>
       </c>
-      <c r="E19" s="2" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" t="n">
         <v>12</v>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" t="n">
         <v>13</v>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2270,156 +2270,156 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Incompatible</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I36" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K36" t="b">
-        <v>1</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="G36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="inlineStr">
+      <c r="D37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I37" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K37" t="b">
-        <v>1</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I38" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K38" t="b">
-        <v>1</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="G38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3050,312 +3050,312 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>4</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" t="n">
         <v>4</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Recorder</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" t="n">
         <v>4</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" t="n">
         <v>5</v>
       </c>
-      <c r="E53" s="2" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" t="n">
         <v>4</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" t="n">
         <v>6</v>
       </c>
-      <c r="E54" s="2" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F54" s="2" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" t="n">
         <v>4</v>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" t="n">
         <v>7</v>
       </c>
-      <c r="E55" s="2" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F55" s="2" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" t="n">
         <v>4</v>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" t="n">
         <v>8</v>
       </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4454,106 +4454,106 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>Strong</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" t="inlineStr">
+      <c r="D79" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11266,1042 +11266,1042 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="n">
+      <c r="A209" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B209" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
+      <c r="C209" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D209" t="n">
+      <c r="D209" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E209" t="inlineStr">
+      <c r="E209" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G209" t="b">
-        <v>1</v>
-      </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I209" t="b">
-        <v>1</v>
-      </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K209" t="b">
-        <v>1</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F209" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G209" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H209" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I209" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J209" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K209" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L209" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
+      <c r="A210" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B210" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C210" s="2" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D210" t="n">
+      <c r="D210" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K210" t="b">
-        <v>1</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E210" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F210" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
+      <c r="A211" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B211" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C211" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D211" t="n">
+      <c r="D211" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E211" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
+      <c r="A212" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>an</t>
         </is>
       </c>
-      <c r="D212" t="n">
+      <c r="D212" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G212" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" t="b">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K212" t="b">
-        <v>1</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E212" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F212" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G212" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J212" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K212" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L212" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
+      <c r="A213" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B213" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C213" s="2" t="inlineStr">
         <is>
           <t>area</t>
         </is>
       </c>
-      <c r="D213" t="n">
+      <c r="D213" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" t="b">
-        <v>1</v>
-      </c>
-      <c r="J213" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K213" t="b">
-        <v>1</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E213" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G213" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L213" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
+      <c r="A214" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B214" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C214" s="2" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D214" t="n">
+      <c r="D214" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G214" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" t="b">
-        <v>1</v>
-      </c>
-      <c r="J214" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K214" t="b">
-        <v>1</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E214" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G214" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L214" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
+      <c r="A215" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B215" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C215" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D215" t="n">
+      <c r="D215" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G215" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" t="b">
-        <v>1</v>
-      </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K215" t="b">
-        <v>1</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E215" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G215" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L215" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
+      <c r="A216" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B216" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C216" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D216" t="n">
+      <c r="D216" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G216" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" t="b">
-        <v>1</v>
-      </c>
-      <c r="J216" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K216" t="b">
-        <v>1</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E216" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G216" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L216" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
+      <c r="A217" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="B217" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+      <c r="C217" s="2" t="inlineStr">
         <is>
           <t>point</t>
         </is>
       </c>
-      <c r="D217" t="n">
+      <c r="D217" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G217" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" t="b">
-        <v>1</v>
-      </c>
-      <c r="J217" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K217" t="b">
-        <v>1</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E217" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G217" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J217" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K217" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L217" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
+      <c r="A218" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="B218" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+      <c r="C218" s="2" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D218" t="n">
+      <c r="D218" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G218" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" t="b">
-        <v>1</v>
-      </c>
-      <c r="J218" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K218" t="b">
-        <v>1</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E218" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F218" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G218" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J218" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K218" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L218" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
+      <c r="A219" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="B219" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
+      <c r="C219" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D219" t="n">
+      <c r="D219" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G219" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I219" t="b">
-        <v>1</v>
-      </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K219" t="b">
-        <v>1</v>
-      </c>
-      <c r="L219" t="inlineStr">
+      <c r="E219" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F219" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G219" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J219" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K219" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L219" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
+      <c r="A220" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B220" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C220" s="2" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D220" t="n">
+      <c r="D220" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G220" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I220" t="b">
-        <v>1</v>
-      </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K220" t="b">
-        <v>1</v>
-      </c>
-      <c r="L220" t="inlineStr">
+      <c r="E220" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F220" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G220" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J220" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K220" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L220" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
+      <c r="A221" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B221" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C221" s="2" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D221" t="n">
+      <c r="D221" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G221" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I221" t="b">
-        <v>1</v>
-      </c>
-      <c r="J221" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K221" t="b">
-        <v>1</v>
-      </c>
-      <c r="L221" t="inlineStr">
+      <c r="E221" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F221" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G221" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J221" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K221" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L221" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="n">
+      <c r="A222" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B222" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+      <c r="C222" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D222" t="n">
+      <c r="D222" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G222" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I222" t="b">
-        <v>1</v>
-      </c>
-      <c r="J222" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K222" t="b">
-        <v>1</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E222" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L222" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="n">
+      <c r="A223" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B223" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
+      <c r="C223" s="2" t="inlineStr">
         <is>
           <t>wind-free</t>
         </is>
       </c>
-      <c r="D223" t="n">
+      <c r="D223" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G223" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I223" t="b">
-        <v>1</v>
-      </c>
-      <c r="J223" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K223" t="b">
-        <v>1</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E223" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G223" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J223" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K223" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L223" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="n">
+      <c r="A224" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="B224" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
+      <c r="C224" s="2" t="inlineStr">
         <is>
           <t>environment</t>
         </is>
       </c>
-      <c r="D224" t="n">
+      <c r="D224" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I224" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K224" t="b">
-        <v>1</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E224" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F224" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G224" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J224" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K224" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L224" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="n">
+      <c r="A225" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="B225" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
+      <c r="C225" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D225" t="n">
+      <c r="D225" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G225" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I225" t="b">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K225" t="b">
-        <v>1</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E225" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F225" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G225" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L225" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
+      <c r="A226" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B226" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="C226" s="2" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D226" t="n">
+      <c r="D226" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G226" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I226" t="b">
-        <v>1</v>
-      </c>
-      <c r="J226" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K226" t="b">
-        <v>1</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E226" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F226" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G226" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I226" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J226" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K226" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L226" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
+      <c r="A227" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B227" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C227" s="2" t="inlineStr">
         <is>
           <t>flight</t>
         </is>
       </c>
-      <c r="D227" t="n">
+      <c r="D227" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G227" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I227" t="b">
-        <v>1</v>
-      </c>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K227" t="b">
-        <v>1</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E227" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F227" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G227" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J227" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K227" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L227" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
+      <c r="A228" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B228" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
+      <c r="C228" s="2" t="inlineStr">
         <is>
           <t>safety</t>
         </is>
       </c>
-      <c r="D228" t="n">
+      <c r="D228" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="E228" t="inlineStr">
+      <c r="E228" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G228" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I228" t="b">
-        <v>1</v>
-      </c>
-      <c r="J228" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K228" t="b">
-        <v>1</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F228" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G228" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J228" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K228" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L228" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12358,416 +12358,416 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
+      <c r="A230" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B230" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C230" s="2" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D230" t="n">
+      <c r="D230" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E230" t="inlineStr">
+      <c r="E230" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
+      <c r="F230" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G230" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I230" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K230" t="b">
-        <v>1</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="G230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J230" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L230" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
+      <c r="A231" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B231" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C231" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D231" t="n">
-        <v>1</v>
-      </c>
-      <c r="E231" t="inlineStr">
+      <c r="D231" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E231" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
+      <c r="F231" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G231" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I231" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K231" t="b">
-        <v>1</v>
-      </c>
-      <c r="L231" t="inlineStr">
+      <c r="G231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J231" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L231" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n">
+      <c r="A232" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B232" t="inlineStr">
+      <c r="B232" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
+      <c r="C232" s="2" t="inlineStr">
         <is>
           <t>lower</t>
         </is>
       </c>
-      <c r="D232" t="n">
+      <c r="D232" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E232" t="inlineStr">
+      <c r="E232" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
+      <c r="F232" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G232" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I232" t="b">
-        <v>1</v>
-      </c>
-      <c r="J232" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K232" t="b">
-        <v>1</v>
-      </c>
-      <c r="L232" t="inlineStr">
+      <c r="G232" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J232" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L232" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="F233" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
+      <c r="A234" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B234" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C234" s="2" t="inlineStr">
         <is>
           <t>pack</t>
         </is>
       </c>
-      <c r="D234" t="n">
+      <c r="D234" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E234" t="inlineStr">
+      <c r="E234" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F234" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
+      <c r="A235" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
+      <c r="C235" s="2" t="inlineStr">
         <is>
           <t>up</t>
         </is>
       </c>
-      <c r="D235" t="n">
+      <c r="D235" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E235" t="inlineStr">
+      <c r="E235" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>landing</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B237" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>landing</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>6</v>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>21</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
+      <c r="C237" s="2" t="inlineStr">
         <is>
           <t>gear</t>
         </is>
       </c>
-      <c r="D237" t="n">
+      <c r="D237" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E237" t="inlineStr">
+      <c r="E237" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F237" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -18026,106 +18026,106 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="2" t="n">
+      <c r="A339" t="n">
         <v>30</v>
       </c>
-      <c r="B339" s="2" t="inlineStr">
+      <c r="B339" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C339" s="2" t="inlineStr">
+      <c r="C339" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="D339" s="2" t="n">
+      <c r="D339" t="n">
         <v>0</v>
       </c>
-      <c r="E339" s="2" t="inlineStr">
+      <c r="E339" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F339" s="2" t="inlineStr">
+      <c r="F339" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G339" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H339" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I339" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J339" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K339" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L339" s="2" t="inlineStr">
+      <c r="G339" t="b">
+        <v>1</v>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I339" t="b">
+        <v>1</v>
+      </c>
+      <c r="J339" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K339" t="b">
+        <v>1</v>
+      </c>
+      <c r="L339" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="2" t="n">
+      <c r="A340" t="n">
         <v>30</v>
       </c>
-      <c r="B340" s="2" t="inlineStr">
+      <c r="B340" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C340" s="2" t="inlineStr">
+      <c r="C340" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="D340" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E340" s="2" t="inlineStr">
+      <c r="D340" t="n">
+        <v>1</v>
+      </c>
+      <c r="E340" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F340" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G340" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H340" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I340" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J340" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K340" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L340" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G340" t="b">
+        <v>1</v>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I340" t="b">
+        <v>1</v>
+      </c>
+      <c r="J340" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K340" t="b">
+        <v>1</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18234,158 +18234,158 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="n">
+      <c r="A343" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B343" t="inlineStr">
+      <c r="B343" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr">
+      <c r="C343" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" t="n">
+      <c r="D343" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E343" t="inlineStr">
+      <c r="E343" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G343" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" t="b">
-        <v>1</v>
-      </c>
-      <c r="J343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K343" t="b">
-        <v>1</v>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F343" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J343" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K343" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L343" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="n">
+      <c r="A344" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B344" t="inlineStr">
+      <c r="B344" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" t="inlineStr">
+      <c r="C344" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" t="n">
+      <c r="D344" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G344" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" t="b">
-        <v>1</v>
-      </c>
-      <c r="J344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K344" t="b">
-        <v>1</v>
-      </c>
-      <c r="L344" t="inlineStr">
+      <c r="E344" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J344" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K344" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L344" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="n">
+      <c r="A345" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B345" t="inlineStr">
+      <c r="B345" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr">
+      <c r="C345" s="2" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" t="n">
+      <c r="D345" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E345" t="inlineStr">
+      <c r="E345" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G345" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K345" t="b">
-        <v>1</v>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F345" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J345" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K345" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L345" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20701,7 +20701,7 @@
       </c>
       <c r="F390" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G390" s="2" t="b">
@@ -20725,7 +20725,7 @@
       </c>
       <c r="L390" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -25878,364 +25878,364 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="2" t="n">
+      <c r="A490" t="n">
         <v>45</v>
       </c>
-      <c r="B490" s="2" t="inlineStr">
+      <c r="B490" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" s="2" t="inlineStr">
+      <c r="C490" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" s="2" t="n">
+      <c r="D490" t="n">
         <v>7</v>
       </c>
-      <c r="E490" s="2" t="inlineStr">
+      <c r="E490" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" s="2" t="inlineStr">
+      <c r="F490" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G490" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J490" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K490" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L490" s="2" t="inlineStr">
+      <c r="G490" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" t="b">
+        <v>1</v>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K490" t="b">
+        <v>1</v>
+      </c>
+      <c r="L490" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="2" t="n">
+      <c r="A491" t="n">
         <v>45</v>
       </c>
-      <c r="B491" s="2" t="inlineStr">
+      <c r="B491" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" s="2" t="inlineStr">
+      <c r="C491" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" s="2" t="n">
+      <c r="D491" t="n">
         <v>8</v>
       </c>
-      <c r="E491" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G491" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J491" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K491" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L491" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G491" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" t="b">
+        <v>1</v>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K491" t="b">
+        <v>1</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="2" t="n">
+      <c r="A492" t="n">
         <v>45</v>
       </c>
-      <c r="B492" s="2" t="inlineStr">
+      <c r="B492" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" s="2" t="inlineStr">
+      <c r="C492" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" s="2" t="n">
+      <c r="D492" t="n">
         <v>9</v>
       </c>
-      <c r="E492" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G492" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J492" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K492" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L492" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G492" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" t="b">
+        <v>1</v>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K492" t="b">
+        <v>1</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="2" t="n">
+      <c r="A493" t="n">
         <v>45</v>
       </c>
-      <c r="B493" s="2" t="inlineStr">
+      <c r="B493" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" s="2" t="inlineStr">
+      <c r="C493" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" s="2" t="n">
+      <c r="D493" t="n">
         <v>10</v>
       </c>
-      <c r="E493" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G493" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J493" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K493" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L493" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G493" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" t="b">
+        <v>1</v>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K493" t="b">
+        <v>1</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="2" t="n">
+      <c r="A494" t="n">
         <v>45</v>
       </c>
-      <c r="B494" s="2" t="inlineStr">
+      <c r="B494" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" s="2" t="inlineStr">
+      <c r="C494" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" s="2" t="n">
+      <c r="D494" t="n">
         <v>11</v>
       </c>
-      <c r="E494" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G494" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J494" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K494" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L494" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G494" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" t="b">
+        <v>1</v>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K494" t="b">
+        <v>1</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="2" t="n">
+      <c r="A495" t="n">
         <v>45</v>
       </c>
-      <c r="B495" s="2" t="inlineStr">
+      <c r="B495" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" s="2" t="inlineStr">
+      <c r="C495" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" s="2" t="n">
+      <c r="D495" t="n">
         <v>12</v>
       </c>
-      <c r="E495" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G495" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J495" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K495" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L495" s="2" t="inlineStr">
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G495" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" t="b">
+        <v>1</v>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K495" t="b">
+        <v>1</v>
+      </c>
+      <c r="L495" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="2" t="n">
+      <c r="A496" t="n">
         <v>45</v>
       </c>
-      <c r="B496" s="2" t="inlineStr">
+      <c r="B496" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" s="2" t="inlineStr">
+      <c r="C496" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" s="2" t="n">
+      <c r="D496" t="n">
         <v>13</v>
       </c>
-      <c r="E496" s="2" t="inlineStr">
+      <c r="E496" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" s="2" t="inlineStr">
+      <c r="F496" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G496" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J496" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K496" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L496" s="2" t="inlineStr">
+      <c r="G496" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" t="b">
+        <v>1</v>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K496" t="b">
+        <v>1</v>
+      </c>
+      <c r="L496" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem2/67/word_level_predictions_67.xlsx
@@ -814,728 +814,728 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>are</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="G13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>(Airport</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Warning</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K13" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>6</v>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>(Airport</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2270,156 +2270,156 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" t="n">
         <v>3</v>
       </c>
-      <c r="B36" s="2" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C36" s="2" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Incompatible</t>
         </is>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" t="n">
         <v>0</v>
       </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G36" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2" t="inlineStr">
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K36" t="b">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" t="n">
         <v>3</v>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D37" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="2" t="inlineStr">
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F37" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G37" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L37" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" t="n">
         <v>3</v>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="D38" s="2" t="n">
+      <c r="D38" t="n">
         <v>2</v>
       </c>
-      <c r="E38" s="2" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F38" s="2" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G38" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L38" s="2" t="inlineStr">
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K38" t="b">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G42" t="b">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G43" t="b">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -3050,312 +3050,312 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Recorder</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4454,106 +4454,106 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>8</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Strong</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>0</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>8</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -11266,1042 +11266,1042 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="n">
+      <c r="A209" t="n">
         <v>20</v>
       </c>
-      <c r="B209" s="2" t="inlineStr">
+      <c r="B209" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C209" s="2" t="inlineStr">
+      <c r="C209" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D209" s="2" t="n">
+      <c r="D209" t="n">
         <v>3</v>
       </c>
-      <c r="E209" s="2" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F209" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G209" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H209" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I209" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J209" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K209" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L209" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G209" t="b">
+        <v>1</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I209" t="b">
+        <v>1</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K209" t="b">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" t="n">
         <v>20</v>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C210" s="2" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
+      <c r="D210" t="n">
         <v>4</v>
       </c>
-      <c r="E210" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F210" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L210" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K210" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" t="n">
         <v>20</v>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
+      <c r="D211" t="n">
         <v>5</v>
       </c>
-      <c r="E211" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L211" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" t="n">
         <v>20</v>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>an</t>
         </is>
       </c>
-      <c r="D212" s="2" t="n">
+      <c r="D212" t="n">
         <v>6</v>
       </c>
-      <c r="E212" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F212" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G212" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H212" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L212" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G212" t="b">
+        <v>1</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K212" t="b">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="n">
+      <c r="A213" t="n">
         <v>20</v>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>area</t>
         </is>
       </c>
-      <c r="D213" s="2" t="n">
+      <c r="D213" t="n">
         <v>7</v>
       </c>
-      <c r="E213" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L213" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G213" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K213" t="b">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="n">
+      <c r="A214" t="n">
         <v>20</v>
       </c>
-      <c r="B214" s="2" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C214" s="2" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>nearby</t>
         </is>
       </c>
-      <c r="D214" s="2" t="n">
+      <c r="D214" t="n">
         <v>8</v>
       </c>
-      <c r="E214" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F214" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G214" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K214" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L214" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G214" t="b">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K214" t="b">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="n">
+      <c r="A215" t="n">
         <v>20</v>
       </c>
-      <c r="B215" s="2" t="inlineStr">
+      <c r="B215" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C215" s="2" t="inlineStr">
+      <c r="C215" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D215" s="2" t="n">
+      <c r="D215" t="n">
         <v>9</v>
       </c>
-      <c r="E215" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F215" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G215" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H215" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K215" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L215" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G215" t="b">
+        <v>1</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K215" t="b">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="n">
+      <c r="A216" t="n">
         <v>20</v>
       </c>
-      <c r="B216" s="2" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C216" s="2" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D216" s="2" t="n">
+      <c r="D216" t="n">
         <v>10</v>
       </c>
-      <c r="E216" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F216" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G216" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H216" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K216" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L216" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G216" t="b">
+        <v>1</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K216" t="b">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="n">
+      <c r="A217" t="n">
         <v>20</v>
       </c>
-      <c r="B217" s="2" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C217" s="2" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>point</t>
         </is>
       </c>
-      <c r="D217" s="2" t="n">
+      <c r="D217" t="n">
         <v>11</v>
       </c>
-      <c r="E217" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F217" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G217" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K217" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L217" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G217" t="b">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K217" t="b">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="n">
+      <c r="A218" t="n">
         <v>20</v>
       </c>
-      <c r="B218" s="2" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C218" s="2" t="inlineStr">
+      <c r="C218" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D218" s="2" t="n">
+      <c r="D218" t="n">
         <v>12</v>
       </c>
-      <c r="E218" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F218" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G218" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H218" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L218" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G218" t="b">
+        <v>1</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K218" t="b">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="n">
+      <c r="A219" t="n">
         <v>20</v>
       </c>
-      <c r="B219" s="2" t="inlineStr">
+      <c r="B219" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C219" s="2" t="inlineStr">
+      <c r="C219" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D219" s="2" t="n">
+      <c r="D219" t="n">
         <v>13</v>
       </c>
-      <c r="E219" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F219" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G219" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H219" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K219" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L219" s="2" t="inlineStr">
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G219" t="b">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I219" t="b">
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K219" t="b">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="n">
+      <c r="A220" t="n">
         <v>20</v>
       </c>
-      <c r="B220" s="2" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C220" s="2" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>fly</t>
         </is>
       </c>
-      <c r="D220" s="2" t="n">
+      <c r="D220" t="n">
         <v>14</v>
       </c>
-      <c r="E220" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F220" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G220" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L220" s="2" t="inlineStr">
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G220" t="b">
+        <v>1</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K220" t="b">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="n">
+      <c r="A221" t="n">
         <v>20</v>
       </c>
-      <c r="B221" s="2" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C221" s="2" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D221" s="2" t="n">
+      <c r="D221" t="n">
         <v>15</v>
       </c>
-      <c r="E221" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F221" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G221" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H221" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L221" s="2" t="inlineStr">
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G221" t="b">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K221" t="b">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="n">
+      <c r="A222" t="n">
         <v>20</v>
       </c>
-      <c r="B222" s="2" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C222" s="2" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D222" s="2" t="n">
+      <c r="D222" t="n">
         <v>16</v>
       </c>
-      <c r="E222" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F222" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G222" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H222" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K222" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L222" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G222" t="b">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I222" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K222" t="b">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="n">
+      <c r="A223" t="n">
         <v>20</v>
       </c>
-      <c r="B223" s="2" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C223" s="2" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>wind-free</t>
         </is>
       </c>
-      <c r="D223" s="2" t="n">
+      <c r="D223" t="n">
         <v>17</v>
       </c>
-      <c r="E223" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F223" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G223" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H223" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K223" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L223" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G223" t="b">
+        <v>1</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I223" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K223" t="b">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="n">
+      <c r="A224" t="n">
         <v>20</v>
       </c>
-      <c r="B224" s="2" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C224" s="2" t="inlineStr">
+      <c r="C224" t="inlineStr">
         <is>
           <t>environment</t>
         </is>
       </c>
-      <c r="D224" s="2" t="n">
+      <c r="D224" t="n">
         <v>18</v>
       </c>
-      <c r="E224" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F224" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G224" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K224" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L224" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G224" t="b">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I224" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K224" t="b">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="n">
+      <c r="A225" t="n">
         <v>20</v>
       </c>
-      <c r="B225" s="2" t="inlineStr">
+      <c r="B225" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C225" s="2" t="inlineStr">
+      <c r="C225" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D225" s="2" t="n">
+      <c r="D225" t="n">
         <v>19</v>
       </c>
-      <c r="E225" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F225" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G225" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H225" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K225" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L225" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G225" t="b">
+        <v>1</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I225" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K225" t="b">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="2" t="n">
+      <c r="A226" t="n">
         <v>20</v>
       </c>
-      <c r="B226" s="2" t="inlineStr">
+      <c r="B226" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C226" s="2" t="inlineStr">
+      <c r="C226" t="inlineStr">
         <is>
           <t>ensure</t>
         </is>
       </c>
-      <c r="D226" s="2" t="n">
+      <c r="D226" t="n">
         <v>20</v>
       </c>
-      <c r="E226" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F226" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G226" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H226" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I226" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K226" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L226" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G226" t="b">
+        <v>1</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I226" t="b">
+        <v>1</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K226" t="b">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="n">
+      <c r="A227" t="n">
         <v>20</v>
       </c>
-      <c r="B227" s="2" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C227" s="2" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>flight</t>
         </is>
       </c>
-      <c r="D227" s="2" t="n">
+      <c r="D227" t="n">
         <v>21</v>
       </c>
-      <c r="E227" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F227" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G227" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H227" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K227" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L227" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G227" t="b">
+        <v>1</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I227" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K227" t="b">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="n">
+      <c r="A228" t="n">
         <v>20</v>
       </c>
-      <c r="B228" s="2" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
-      <c r="C228" s="2" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>safety</t>
         </is>
       </c>
-      <c r="D228" s="2" t="n">
+      <c r="D228" t="n">
         <v>22</v>
       </c>
-      <c r="E228" s="2" t="inlineStr">
+      <c r="E228" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F228" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G228" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H228" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K228" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L228" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G228" t="b">
+        <v>1</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I228" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K228" t="b">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12358,416 +12358,416 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
+      <c r="A230" t="n">
         <v>21</v>
       </c>
-      <c r="B230" s="2" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C230" s="2" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D230" s="2" t="n">
+      <c r="D230" t="n">
         <v>0</v>
       </c>
-      <c r="E230" s="2" t="inlineStr">
+      <c r="E230" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F230" s="2" t="inlineStr">
+      <c r="F230" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L230" s="2" t="inlineStr">
+      <c r="G230" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I230" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K230" t="b">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
+      <c r="A231" t="n">
         <v>21</v>
       </c>
-      <c r="B231" s="2" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C231" s="2" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D231" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E231" s="2" t="inlineStr">
+      <c r="D231" t="n">
+        <v>1</v>
+      </c>
+      <c r="E231" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F231" s="2" t="inlineStr">
+      <c r="F231" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L231" s="2" t="inlineStr">
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I231" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K231" t="b">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="n">
+      <c r="A232" t="n">
         <v>21</v>
       </c>
-      <c r="B232" s="2" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C232" s="2" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>lower</t>
         </is>
       </c>
-      <c r="D232" s="2" t="n">
+      <c r="D232" t="n">
         <v>2</v>
       </c>
-      <c r="E232" s="2" t="inlineStr">
+      <c r="E232" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F232" s="2" t="inlineStr">
+      <c r="F232" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G232" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L232" s="2" t="inlineStr">
+      <c r="G232" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I232" t="b">
+        <v>1</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K232" t="b">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>21</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>3</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F233" s="2" t="inlineStr">
+      <c r="F233" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>21</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>pack</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>4</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
+      <c r="F234" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>21</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>up</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>5</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>21</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>landing</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>6</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F236" s="2" t="inlineStr">
+      <c r="F236" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" t="n">
         <v>21</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>gear</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" t="n">
         <v>7</v>
       </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
+      <c r="F237" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -18026,106 +18026,106 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="n">
+      <c r="A339" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B339" t="inlineStr">
+      <c r="B339" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C339" t="inlineStr">
+      <c r="C339" s="2" t="inlineStr">
         <is>
           <t>Unknown</t>
         </is>
       </c>
-      <c r="D339" t="n">
+      <c r="D339" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E339" t="inlineStr">
+      <c r="E339" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F339" t="inlineStr">
+      <c r="F339" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G339" t="b">
-        <v>1</v>
-      </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I339" t="b">
-        <v>1</v>
-      </c>
-      <c r="J339" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K339" t="b">
-        <v>1</v>
-      </c>
-      <c r="L339" t="inlineStr">
+      <c r="G339" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H339" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I339" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J339" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K339" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L339" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="n">
+      <c r="A340" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B340" t="inlineStr">
+      <c r="B340" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C340" t="inlineStr">
+      <c r="C340" s="2" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="D340" t="n">
-        <v>1</v>
-      </c>
-      <c r="E340" t="inlineStr">
+      <c r="D340" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E340" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G340" t="b">
-        <v>1</v>
-      </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I340" t="b">
-        <v>1</v>
-      </c>
-      <c r="J340" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K340" t="b">
-        <v>1</v>
-      </c>
-      <c r="L340" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F340" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G340" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H340" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I340" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J340" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K340" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L340" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -18234,158 +18234,158 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="2" t="n">
+      <c r="A343" t="n">
         <v>30</v>
       </c>
-      <c r="B343" s="2" t="inlineStr">
+      <c r="B343" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" s="2" t="inlineStr">
+      <c r="C343" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" s="2" t="n">
+      <c r="D343" t="n">
         <v>4</v>
       </c>
-      <c r="E343" s="2" t="inlineStr">
+      <c r="E343" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G343" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J343" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L343" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G343" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K343" t="b">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="2" t="n">
+      <c r="A344" t="n">
         <v>30</v>
       </c>
-      <c r="B344" s="2" t="inlineStr">
+      <c r="B344" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" s="2" t="inlineStr">
+      <c r="C344" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" s="2" t="n">
+      <c r="D344" t="n">
         <v>5</v>
       </c>
-      <c r="E344" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G344" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J344" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L344" s="2" t="inlineStr">
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G344" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K344" t="b">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="2" t="n">
+      <c r="A345" t="n">
         <v>30</v>
       </c>
-      <c r="B345" s="2" t="inlineStr">
+      <c r="B345" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" s="2" t="inlineStr">
+      <c r="C345" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" s="2" t="n">
+      <c r="D345" t="n">
         <v>6</v>
       </c>
-      <c r="E345" s="2" t="inlineStr">
+      <c r="E345" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J345" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L345" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G345" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K345" t="b">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20701,7 +20701,7 @@
       </c>
       <c r="F390" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G390" s="2" t="b">
@@ -20725,7 +20725,7 @@
       </c>
       <c r="L390" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -25878,364 +25878,364 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="n">
+      <c r="A490" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B490" t="inlineStr">
+      <c r="B490" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" t="inlineStr">
+      <c r="C490" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" t="n">
+      <c r="D490" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E490" t="inlineStr">
+      <c r="E490" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" t="inlineStr">
+      <c r="F490" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G490" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" t="b">
-        <v>1</v>
-      </c>
-      <c r="J490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K490" t="b">
-        <v>1</v>
-      </c>
-      <c r="L490" t="inlineStr">
+      <c r="G490" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J490" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K490" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L490" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="n">
+      <c r="A491" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B491" t="inlineStr">
+      <c r="B491" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" t="inlineStr">
+      <c r="C491" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" t="n">
+      <c r="D491" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G491" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" t="b">
-        <v>1</v>
-      </c>
-      <c r="J491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K491" t="b">
-        <v>1</v>
-      </c>
-      <c r="L491" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E491" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G491" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J491" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K491" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L491" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="n">
+      <c r="A492" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B492" t="inlineStr">
+      <c r="B492" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" t="inlineStr">
+      <c r="C492" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" t="n">
+      <c r="D492" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G492" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" t="b">
-        <v>1</v>
-      </c>
-      <c r="J492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K492" t="b">
-        <v>1</v>
-      </c>
-      <c r="L492" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E492" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G492" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J492" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K492" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L492" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="n">
+      <c r="A493" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B493" t="inlineStr">
+      <c r="B493" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" t="inlineStr">
+      <c r="C493" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" t="n">
+      <c r="D493" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G493" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" t="b">
-        <v>1</v>
-      </c>
-      <c r="J493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K493" t="b">
-        <v>1</v>
-      </c>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E493" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G493" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J493" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K493" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L493" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="n">
+      <c r="A494" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B494" t="inlineStr">
+      <c r="B494" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" t="inlineStr">
+      <c r="C494" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" t="n">
+      <c r="D494" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G494" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" t="b">
-        <v>1</v>
-      </c>
-      <c r="J494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K494" t="b">
-        <v>1</v>
-      </c>
-      <c r="L494" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E494" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G494" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J494" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K494" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L494" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="n">
+      <c r="A495" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B495" t="inlineStr">
+      <c r="B495" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" t="inlineStr">
+      <c r="C495" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" t="n">
+      <c r="D495" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G495" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" t="b">
-        <v>1</v>
-      </c>
-      <c r="J495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K495" t="b">
-        <v>1</v>
-      </c>
-      <c r="L495" t="inlineStr">
+      <c r="E495" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G495" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J495" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K495" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L495" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="n">
+      <c r="A496" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B496" t="inlineStr">
+      <c r="B496" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" t="inlineStr">
+      <c r="C496" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" t="n">
+      <c r="D496" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E496" t="inlineStr">
+      <c r="E496" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" t="inlineStr">
+      <c r="F496" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G496" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" t="b">
-        <v>1</v>
-      </c>
-      <c r="J496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K496" t="b">
-        <v>1</v>
-      </c>
-      <c r="L496" t="inlineStr">
+      <c r="G496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J496" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L496" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
